--- a/mod-3/bloco-22/22.2/22.2_exercicios_normalizacao.xlsx
+++ b/mod-3/bloco-22/22.2/22.2_exercicios_normalizacao.xlsx
@@ -5,10 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Página1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Fixacao" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Exercicio 1" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Exercicio 2" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Exercicio 3" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="122">
   <si>
     <t xml:space="preserve">funcionario</t>
   </si>
@@ -118,6 +121,9 @@
     <t xml:space="preserve">Vendas</t>
   </si>
   <si>
+    <t xml:space="preserve">Ex 1</t>
+  </si>
+  <si>
     <t xml:space="preserve">residencia_id</t>
   </si>
   <si>
@@ -175,6 +181,123 @@
     <t xml:space="preserve">Letice, Laísa, Bartolomeu</t>
   </si>
   <si>
+    <t xml:space="preserve">residencia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">locador_nome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">locador_sobrenome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">numero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cidade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">estado_sigla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fatima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rua Norte Sul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belo Horizonte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ramon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jonathan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Av Rodrigues Ramos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salvador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vanderson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Judis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rua Brusque</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ipatinga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carolina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Av Atlantica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Camboriú</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inquilino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inquilino_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">João</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mária</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carlos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sebastião</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alfredo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marizete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Letice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laísa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bartolomeu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ex 2</t>
+  </si>
+  <si>
     <t xml:space="preserve">heroi_id</t>
   </si>
   <si>
@@ -230,6 +353,42 @@
   </si>
   <si>
     <t xml:space="preserve">Len Wein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ex 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">filme_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">genero_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">genero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">valor_entrada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biográfico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comédia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comédia romântica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resposta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">filme</t>
   </si>
 </sst>
 </file>
@@ -241,7 +400,7 @@
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
     <numFmt numFmtId="166" formatCode="hh:mm:ss"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -283,6 +442,12 @@
       <name val="&quot;Arial&quot;"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -327,7 +492,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -356,6 +521,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -373,19 +542,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:I32"/>
+  <dimension ref="B2:L25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G21" activeCellId="0" sqref="G21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B33" activeCellId="0" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="30.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="38.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="26.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="22.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="32.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="25.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="55.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="36.54"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -612,189 +785,39 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B21" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>36</v>
-      </c>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B22" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>40</v>
-      </c>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B23" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>44</v>
-      </c>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B24" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>47</v>
-      </c>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B25" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B28" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B29" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="G29" s="6" t="n">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B30" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="G30" s="6" t="n">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B31" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="G31" s="6" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B32" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="G32" s="6" t="n">
-        <v>69</v>
-      </c>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -805,4 +828,815 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B2:I28"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="38.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="28.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="20.42"/>
+  </cols>
+  <sheetData>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B4" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B5" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B6" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B7" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" s="7" t="n">
+        <v>35</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="7" t="n">
+        <v>950</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G14" s="7" t="n">
+        <v>352</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G15" s="7" t="n">
+        <v>254</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="0" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B2:G7"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K16" activeCellId="0" sqref="K16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.14"/>
+  </cols>
+  <sheetData>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B3" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B4" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B5" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B6" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B7" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B2:E32"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J20" activeCellId="0" sqref="J20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.34"/>
+  </cols>
+  <sheetData>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="0" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>27.9</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>30.7</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>26.25</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>17.8</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>15.75</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>27.9</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>30.7</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>26.25</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>17.8</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>15.75</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="0" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>119</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>